--- a/softeng22-19-presentation.xlsx
+++ b/softeng22-19-presentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matrix\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\SoftwareEngineering\development\SoftEng22-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DDA97-B3A6-4345-8D49-6BC63C274AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF32F6F-4B41-427B-9B53-7FE38A924B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
+    <workbookView xWindow="7200" yWindow="75" windowWidth="21600" windowHeight="13350" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
   </bookViews>
   <sheets>
     <sheet name="softeng 22" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>ΠΑΡΟΥΣΙΑΣΗ ΕΡΓΑΣΙΑΣ</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Δεν ζητειται</t>
+  </si>
+  <si>
+    <t>OPENAPI3</t>
   </si>
 </sst>
 </file>
@@ -432,6 +435,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -439,23 +452,13 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -901,18 +904,18 @@
       <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -921,8 +924,8 @@
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -931,10 +934,10 @@
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -943,8 +946,8 @@
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -953,10 +956,10 @@
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -965,8 +968,8 @@
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -975,8 +978,8 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -985,16 +988,16 @@
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -1003,8 +1006,8 @@
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -1013,8 +1016,8 @@
       <c r="B26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -1023,8 +1026,8 @@
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1033,8 +1036,8 @@
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -1043,8 +1046,8 @@
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -1053,26 +1056,26 @@
       <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -1081,8 +1084,8 @@
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -1091,18 +1094,18 @@
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -1140,38 +1143,47 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A41:D45"/>
@@ -1188,15 +1200,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
